--- a/medicine/Mort/Cimetière_Mont-Royal/Cimetière_Mont-Royal.xlsx
+++ b/medicine/Mort/Cimetière_Mont-Royal/Cimetière_Mont-Royal.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Cimeti%C3%A8re_Mont-Royal</t>
+          <t>Cimetière_Mont-Royal</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Le cimetière Mont-Royal est un cimetière terrassé de 165 acres (66,8 hectares) sur le flanc nord du Mont Royal à Montréal au Québec, Canada. Il s'est ouvert en 1852. Le terrain d'enterrement partage la montagne avec le cimetière Notre-Dame-des-Neiges, plus grand et deux autres cimetières juifs.
 </t>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Cimeti%C3%A8re_Mont-Royal</t>
+          <t>Cimetière_Mont-Royal</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,12 +523,14 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Le cimetière Mont-Royal contient près de 200 000 résidents et est le lieu de dernier repos pour un nombre de Canadiens notables. Il inclut une section de vétérans avec de nombreux soldats qui reçurent le plus haut honneur militaire de l'Empire britannique, la Croix de Victoria. 
 Ouvert à toutes ethnies et religions, le cimetière a historiquement été utilisé par les membres de la communauté anglophone et ceux de foi protestante. 
-Le cimetière Mont-Royal est reconnu comme un lieu historique national du Canada en 1998[1]. En 1901, la Compagnie du Cimetière du Mont Royal établit le premier crématorium du Canada, avec un dessin par Andrew Taylor. 
-Le cimetière est également l'emplacement des eaux d'amont du petit ruisseau d'Outremont[2].
+Le cimetière Mont-Royal est reconnu comme un lieu historique national du Canada en 1998. En 1901, la Compagnie du Cimetière du Mont Royal établit le premier crématorium du Canada, avec un dessin par Andrew Taylor. 
+Le cimetière est également l'emplacement des eaux d'amont du petit ruisseau d'Outremont.
 </t>
         </is>
       </c>
@@ -527,7 +541,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Cimeti%C3%A8re_Mont-Royal</t>
+          <t>Cimetière_Mont-Royal</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -545,7 +559,9 @@
           <t>Personnalités enterrées</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Quelques-uns des résidents célèbres du cimetière sont :
 John Abbott (1821-1893), premier ministre du Canada.
